--- a/ooxml-mapper/output.xlsx
+++ b/ooxml-mapper/output.xlsx
@@ -17,11 +17,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/mm/yyy HH:MM"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="HH:MM"/>
-    <numFmt numFmtId="167" formatCode="#"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyy HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="HH:MM"/>
+    <numFmt numFmtId="168" formatCode="#"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -221,22 +222,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -248,16 +249,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>

--- a/ooxml-mapper/output.xlsx
+++ b/ooxml-mapper/output.xlsx
@@ -267,7 +267,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -414,10 +414,67 @@
         <v>5.52</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="16" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="B3" s="17" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="C3" s="18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="19" t="n">
+        <v>23000.0</v>
+      </c>
+      <c r="E3" s="20" t="inlineStr">
+        <is>
+          <t>DKK</t>
+        </is>
+      </c>
+      <c r="F3" s="21" t="n">
+        <v>44714.51493055555</v>
+      </c>
+      <c r="G3" s="22" t="inlineStr">
+        <is>
+          <t>https://www.power.dk/computere-og-tablets/computere/baerbar-pc/hp-14s-fq2473no-14-baerbar-pc/p-1846428/</t>
+        </is>
+      </c>
+      <c r="H3" s="23" t="inlineStr">
+        <is>
+          <t>HP Bærbar</t>
+        </is>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="K3" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="27" t="n">
+        <v>44987.002916666665</v>
+      </c>
+      <c r="M3" s="28" t="n">
+        <v>44584.0</v>
+      </c>
+      <c r="N3" s="29" t="n">
+        <v>25569.48130787037</v>
+      </c>
+      <c r="O3" s="30" t="n">
+        <v>5.52</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
